--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>582923.3020908735</v>
+        <v>596649.6602282916</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26316,10 @@
         <v>532529.620166075</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.6201660748</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="E2" t="n">
         <v>148616.7125948226</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62628.14044682682</v>
+        <v>62628.14044682679</v>
       </c>
       <c r="C6" t="n">
-        <v>62628.1404468267</v>
+        <v>62628.14044682691</v>
       </c>
       <c r="D6" t="n">
-        <v>62628.14044682693</v>
+        <v>62628.14044682679</v>
       </c>
       <c r="E6" t="n">
-        <v>-42247.92351324551</v>
+        <v>-42247.92351324557</v>
       </c>
       <c r="F6" t="n">
         <v>90852.07648675449</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>596649.6602282916</v>
+        <v>512864.2584666668</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660752</v>
       </c>
       <c r="C2" t="n">
         <v>532529.6201660751</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="E2" t="n">
         <v>148616.7125948226</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62628.14044682679</v>
+        <v>62584.0046681459</v>
       </c>
       <c r="C6" t="n">
-        <v>62628.14044682691</v>
+        <v>62584.00466814578</v>
       </c>
       <c r="D6" t="n">
-        <v>62628.14044682679</v>
+        <v>62584.00466814578</v>
       </c>
       <c r="E6" t="n">
-        <v>-42247.92351324557</v>
+        <v>-57057.94035235948</v>
       </c>
       <c r="F6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="G6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="H6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="I6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="J6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="K6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="L6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="M6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="N6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="O6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
       <c r="P6" t="n">
-        <v>90852.07648675449</v>
+        <v>76042.05964764059</v>
       </c>
     </row>
   </sheetData>
